--- a/time-functions/TimeConversionFunctions.xlsx
+++ b/time-functions/TimeConversionFunctions.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Excel Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S00014510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56732C15-987C-1143-8A9E-64D401BDA7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34BAC8-E524-41B9-97FB-8A2E3815D661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="2300" windowWidth="27700" windowHeight="16940" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
+    <workbookView xWindow="555" yWindow="1095" windowWidth="27600" windowHeight="14250" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DECTIME">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365.25) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), _xlpm.result))</definedName>
-    <definedName name="DECTIMEF">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365.25) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), FIXED(_xlpm.result, 9) &amp; LOWER(_xlpm.code)))</definedName>
-    <definedName name="EXPTIMEF">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, ROUND(MOD(_xlpm.totalSeconds, 60), _xlpm.decimalPlaces), _xlpm.formattedY, TEXT(_xlpm.y, "00"), _xlpm.formattedD, TEXT(_xlpm.d, "00"), _xlpm.formattedH, TEXT(_xlpm.h, "00"), _xlpm.formattedM, TEXT(_xlpm.m, "00"), _xlpm.formattedS, _xlpm.s, _xlpm.formatNumeric, _xlfn.TEXTJOIN(":", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatNumeric, "Invalid Input")))</definedName>
-    <definedName name="EXPTIMET">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, ROUND(MOD(_xlpm.totalSeconds, 60), _xlpm.decimalPlaces), _xlpm.formattedY, _xlpm.y &amp; "y", _xlpm.formattedD, _xlpm.d &amp; "d", _xlpm.formattedH, _xlpm.h &amp; "h", _xlpm.formattedM, _xlpm.m &amp; "m", _xlpm.formattedS, _xlpm.s &amp; "s", _xlpm.formatText, _xlfn.TEXTJOIN(" ", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatText, "Invalid Input")))</definedName>
+    <definedName name="DECTIME">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), _xlpm.result))</definedName>
+    <definedName name="DECTIMEF">_xlfn.LAMBDA(_xlpm.input,_xlop.y,_xlop.d,_xlop.h,_xlop.m,_xlop.s, _xlfn.LET(_xlpm.y, N(_xlpm.y), _xlpm.d, N(_xlpm.d), _xlpm.h, N(_xlpm.h), _xlpm.m, N(_xlpm.m), _xlpm.s, N(_xlpm.s), _xlpm.code, UPPER(IF(ISNUMBER(SEARCH(_xlpm.input, "YDHMS")), _xlpm.input, "S")), _xlpm.result, _xlfn.SWITCH(_xlpm.code, "S", (_xlpm.y * 31557600) + (_xlpm.d * 86400) + (_xlpm.h * 3600) + (_xlpm.m * 60) + _xlpm.s, "M", (_xlpm.y * 525960) + (_xlpm.d * 1440) + (_xlpm.h * 60) + _xlpm.m + (_xlpm.s / 60), "H", (_xlpm.y * 8766) + (_xlpm.d * 24) + _xlpm.h + (_xlpm.m / 60) + (_xlpm.s / 3600), "D", (_xlpm.y * 365) + _xlpm.d + (_xlpm.h / 24) + (_xlpm.m / 1440) + (_xlpm.s / 86400), "Y", _xlpm.y + (_xlpm.d / 365.25) + (_xlpm.h / 8766) + (_xlpm.m / 525960) + (_xlpm.s / 31557600), "Invalid Unit"), FIXED(_xlpm.result, 9) &amp; LOWER(_xlpm.code)))</definedName>
+    <definedName name="EXPTIMEF">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.decimalPlaces, _xlfn.LET(_xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 1440, "S", 60, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.rawS, MOD(_xlpm.totalSeconds, 60), _xlpm.totalMinutes, INT(_xlpm.totalSeconds / 60), _xlpm.rawM, MOD(_xlpm.totalMinutes, 60), _xlpm.totalHours, INT(_xlpm.totalMinutes / 60), _xlpm.rawH, MOD(_xlpm.totalHours, 24), _xlpm.totalDays, INT(_xlpm.totalHours / 24), _xlpm.rawD, MOD(_xlpm.totalDays, 365.25), _xlpm.rawY, INT(_xlpm.totalDays / 365.25), _xlpm.carryH, IF(_xlpm.rawM &gt;= 60, 1, 0), _xlpm.m, IF(_xlpm.rawM &gt;= 60, 0, _xlpm.rawM), _xlpm.carryD, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 1, 0), _xlpm.h, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 0, _xlpm.rawH + _xlpm.carryH), _xlpm.carryY, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 1, 0), _xlpm.d, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 0, _xlpm.rawD + _xlpm.carryD), _xlpm.y, _xlpm.rawY + _xlpm.carryY, TEXT(_xlpm.y, "00") &amp; ":" &amp; TEXT(_xlpm.d, "000") &amp; ":" &amp; TEXT(_xlpm.h, "00") &amp; ":" &amp; TEXT(_xlpm.m, "00") &amp; ":" &amp; INT(_xlpm.rawS * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces))</definedName>
+    <definedName name="EXPTIMET">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, MOD(_xlpm.totalSeconds, 60), _xlpm.formattedY, _xlpm.y &amp; "y", _xlpm.formattedD, _xlpm.d &amp; "d", _xlpm.formattedH, _xlpm.h &amp; "h", _xlpm.formattedM, _xlpm.m &amp; "m", _xlpm.formattedS, INT(_xlpm.s * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces &amp; "s", _xlpm.formatText, _xlfn.TEXTJOIN(" ", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatText, "Invalid Input")))</definedName>
+    <definedName name="H12TOM12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.toText, TEXT(_xlpm.incoming, "HH:MM AM/PM"), _xlpm.ampm, UPPER(RIGHT(_xlpm.toText, 2)), _xlpm.hr, TEXT(_xlfn.TEXTBEFORE(_xlpm.toText, ":"), "00"), _xlpm.mn, TEXT(_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.toText, ":"), RIGHT(_xlpm.toText, 2)), "00"), _xlpm.output, _xlpm.hr &amp; _xlpm.mn &amp; _xlpm.ampm, _xlpm.output))</definedName>
+    <definedName name="M12MOD">_xlfn.LAMBDA(_xlpm.incoming,_xlpm.adjustment, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.ampm, "AM", IF(_xlpm.hour = 12, "00", TEXT(_xlpm.hour, "00")), "PM", IF(_xlpm.hour = 12, "12", TEXT(_xlpm.hour + 12, "00"))), _xlpm.hh, VALUE(_xlpm.hour), _xlpm.mm, VALUE(_xlpm.minute) / 60, _xlpm.decHours, _xlpm.hh + _xlpm.mm, _xlpm.modHours, _xlpm.decHours + _xlpm.adjustment, _xlpm.hHours, MOD(_xlpm.modHours, 12), _xlpm.outHours, TEXT(TRUNC(_xlpm.hHours), "00"), _xlpm.outMins, TEXT((_xlpm.hHours - TRUNC(_xlpm.hHours)) * 60, "00"), _xlpm.suffix, IF(AND(_xlpm.decHours &gt;= 12, _xlpm.modHours &lt; 12, _xlpm.hr = "AM"), "AM", "PM"), _xlpm.outPut, _xlfn.TEXTJOIN("", , _xlpm.outHours, _xlpm.outMins, _xlpm.suffix), _xlpm.outPut))</definedName>
+    <definedName name="M12TOH12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.hour, 12, "12", 0, "12", IF(_xlpm.ampm = "PM", TEXT(_xlpm.hour + 12, "00"), TEXT(_xlpm.hour, "00"))), _xlpm.output, _xlfn.TEXTJOIN(":", , _xlpm.hr, _xlpm.minute) &amp; _xlpm.ampm, _xlpm.output))</definedName>
+    <definedName name="M12TOM24">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.ampm, "AM", IF(_xlpm.hour = 12, "00", TEXT(_xlpm.hour, "00")), "PM", IF(_xlpm.hour = 12, "12", TEXT(_xlpm.hour + 12, "00"))), _xlpm.output, _xlfn.TEXTJOIN("", , _xlpm.hr, _xlpm.minute), _xlpm.output))</definedName>
+    <definedName name="M24TOM12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.hour, VALUE(LEFT(_xlpm.incoming, 2)), _xlpm.minute, RIGHT(_xlpm.incoming, 2), _xlpm.ampm, IF(_xlpm.hour &lt; 12, "AM", "PM"), _xlpm.hr, _xlfn.SWITCH(_xlpm.hour, 0, "12", 12, "12", IF(_xlpm.hour &gt; 12, TEXT(_xlpm.hour - 12, "00"), TEXT(_xlpm.hour, "00"))), _xlpm.output, _xlfn.TEXTJOIN("", , _xlpm.hr, _xlpm.minute, _xlpm.ampm), _xlpm.output))</definedName>
+    <definedName name="TIMEDIFFD">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.diffHours, _xlpm.diffSec / 3600, ROUND(_xlpm.diffHours, 9)))</definedName>
+    <definedName name="TIMEDIFFS">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.hh, INT(_xlpm.diffSec / 3600), _xlpm.mm, INT(MOD(_xlpm.diffSec, 3600) / 60), _xlpm.ss, MOD(_xlpm.diffSec, 60), TEXT(_xlpm.hh, "00") &amp; ":" &amp; TEXT(_xlpm.mm, "00") &amp; ":" &amp; TEXT(_xlpm.ss, "00")))</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,8 +48,51 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>0900AM</t>
+  </si>
+  <si>
+    <t>1230PM</t>
+  </si>
+  <si>
+    <t>0330PM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -71,8 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +464,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="705" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -425,6 +482,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -436,18 +496,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2">EXPTIMET("H",1.999999997,,3)</f>
+        <v>0y 0d 1h 59m 59.999s</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=EXPTIMET("H",1.999999997,,3)</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">EXPTIMEF("H",1.999999997,3)</f>
+        <v>00:000:01:59:59.999</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B3)</f>
+        <v>=EXPTIMEF("H",1.999999997,3)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2" cm="1">
+        <f t="array" ref="B5">DECTIME("H",0,0,1,59,59.999)</f>
+        <v>1.9999997222222223</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+        <v>=DECTIME("H",0,0,1,59,59.999)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2" t="str" cm="1">
+        <f t="array" ref="B6">DECTIMEF("H",0,0,1,59,59.999)</f>
+        <v>1.999999722h</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=DECTIMEF("H",0,0,1,59,59.999)</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="D10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">DECTIME("h",,,1,59,59.99999)</f>
+        <v>1.9999999972222222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">TIMEDIFFD("11:23","14:55")</f>
+        <v>3.5333333329999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">TIMEDIFFS("11:23","14:55")</f>
+        <v>03:32:00</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" ref="D16">M12MOD(D13,2)</f>
+        <v>1100PM</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" ref="E16">M12MOD(E13,2)</f>
+        <v>0230PM</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16">M12MOD(F13,2)</f>
+        <v>0530PM</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="D17" t="str" cm="1">
+        <f t="array" ref="D17">M12MOD(D13,-2)</f>
+        <v>0700PM</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" ref="E17">M12MOD(E13,-2)</f>
+        <v>1030PM</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17">M12MOD(F13,-2)</f>
+        <v>0130PM</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAKAB5ACoAMwA2ADUALgAyADUAKQAgACsAIABkACAAKwAgACgAaAAvADIANAApACAAKwAgACgAbQAvADEANAA0ADAAKQAgACsAIAAoAHMALwA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgAHkAIAArACAAKABkAC8AMwA2ADUALgAyADUAKQAgACsAIAAoAGgALwA4ADcANgA2ACkAIAArACAAKABtAC8ANQAyADUAOQA2ADAAKQAgACsAIAAoAHMALwAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASQBuAHYAYQBsAGkAZAAgAFUAbgBpAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARABFAEMAVABJAE0ARQBGACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAKAB5ACoAMwA2ADUALgAyADUAKQAgACsAIABkACAAKwAgACgAaAAvADIANAApACAAKwAgACgAbQAvADEANAA0ADAAKQAgACsAIAAoAHMALwA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgAHkAIAArACAAKABkAC8AMwA2ADUALgAyADUAKQAgACsAIAAoAGgALwA4ADcANgA2ACkAIAArACAAKABtAC8ANQAyADUAOQA2ADAAKQAgACsAIAAoAHMALwAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASQBuAHYAYQBsAGkAZAAgAFUAbgBpAHQAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBpAHgAZQBkACgAcgBlAHMAdQBsAHQALAA5ACkAJgBMAE8AVwBFAFIAKABjAG8AZABlACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ARQBYAFAAVABJAE0ARQBUACAAPQAgAEwAQQBNAEIARABBACgAdQBuAGkAdAAsACAAdgBhAGwAdQBlACwAIABbAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwBdACwAIABbAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABpAG4AYwBsAHUAZABlAFoAZQByAG8ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACkALAAgAFQAUgBVAEUALAAgAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsACAAMwAsACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAXABuACAAIAAgACAAIAAgACAAIAB1AG4AaQB0ACwAIABVAFAAUABFAFIAKAB1AG4AaQB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBjAHQAbwByACwAIABTAFcASQBUAEMASAAoAHUAbgBpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAWQBcACIALAAgADMAMQA1ADUANwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBEAFwAIgAsACAAOAA2ADQAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEgAXAAiACwAIAAzADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAA2ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADEALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAEEAKAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAB2AGEAbAB1AGUAIAAqACAAZgBhAGMAdABvAHIALABcAG4AIAAgACAAIAAgACAAIAAgAHkALAAgAEkATgBUACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMAIAAvACAAMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAMwAxADUANQA3ADYAMAAwACkAIAAvACAAOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAOAA2ADQAMAAwACkAIAAvACAAMwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAAUgBPAFUATgBEACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsACAAIAAvAC8AIABSAG8AdQBuAGQAIAB0AG8AIAB1AHMAZQByAC0AZABlAGYAaQBuAGUAZAAgAGQAZQBjAGkAbQBhAGwAcwBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIAB5ACAAJgAgAFwAIgB5AFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAZAAgACYAIABcACIAZABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAGgAIAAmACAAXAAiAGgAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABtACAAJgAgAFwAIgBtAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwAsACAAcwAgACYAIABcACIAcwBcACIALAAgACAALwAvACAAUABhAHMAcwAgAHIAbwB1AG4AZABlAGQAIAB2AGEAbAB1AGUAIABkAGkAcgBlAGMAdABsAHkAIAAoAGYAdQB0AHUAcgBlAC0AcAByAG8AbwBmAGkAbgBnACEAKQBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdABUAGUAeAB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAIABcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAHkAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQAWQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABkACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEQALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAaAAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABIACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAG0AIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQATQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFwAIgBJAG4AdgBhAGwAaQBkACAASQBuAHAAdQB0AFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBFAFgAUABUAEkATQBFAEYAIAA9ACAATABBAE0AQgBEAEEAKAB1AG4AaQB0ACwAIAB2AGEAbAB1AGUALAAgAFsAaQBuAGMAbAB1AGQAZQBaAGUAcgBvAF0ALAAgAFsAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsACAAVABSAFUARQAsACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAIAAzACwAIABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALABcAG4AIAAgACAAIAAgACAAIAAgAHUAbgBpAHQALAAgAFUAUABQAEUAUgAoAHUAbgBpAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAMQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAASQBOAFQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC8AIAAzADEANQA1ADcANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADEANQA1ADcANgAwADAAKQAgAC8AIAA4ADYANAAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAA4ADYANAAwADAAKQAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkATgBUACgATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAMwA2ADAAMAApACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABSAE8AVQBOAEQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAA2ADAAKQAsACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwApACwAIAAgAC8ALwAgAFIAbwB1AG4AZAAgAHQAbwAgAHUAcwBlAHIALQBkAGUAZgBpAG4AZQBkACAAZABlAGMAaQBtAGEAbABzAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABUAEUAWABUACgAZAAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAVABFAFgAVAAoAGgALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAFQARQBYAFQAKABtACwAIABcACIAMAAwAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABzACwAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQBcAG4AXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdABOAHUAbQBlAHIAaQBjACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAOgBcACIALAAgAFQAUgBVAEUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAHkAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQAWQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABkACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEQALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAaAAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABIACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAG0AIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQATQAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFMAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAASQBGAEUAUgBSAE8AUgAoAGYAbwByAG0AYQB0AE4AdQBtAGUAcgBpAGMALAAgAFwAIgBJAG4AdgBhAGwAaQBkACAASQBuAHAAdQB0AFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBEAEUAQwBUAEkATQBFACIALAAiAEQARQBDAFQASQBNAEUARgAiACwAIgBFAFgAUABUAEkATQBFAFQAIgAsACIARQBYAFAAVABJAE0ARQBGACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAeQAgACsAIAAoAGQALwAzADYANQAuADIANQApACAAKwAgACgAaAAvADgANwA2ADYAKQAgACsAIAAoAG0ALwA1ADIANQA5ADYAMAApACAAKwAgACgAcwAvADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAVQBuAGkAdABcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AbQAvADYAMABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBDAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFsAeQBdACwAWwBkAF0ALABbAGgAXQAsAFsAbQBdACwAWwBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAATgAoAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAATgAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAATgAoAGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAATgAoAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAATgAoAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsACAAVQBQAFAARQBSACgASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABpAG4AcAB1AHQALAAgAFwAIgBZAEQASABNAFMAXAAiACkAKQAsACAAaQBuAHAAdQB0ACwAIABcACIAUwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgACgAeQAqADMAMQA1ADUANwA2ADAAMAApACAAKwAgACgAZAAqADgANgA0ADAAMAApACAAKwAgACgAaAAqADMANgAwADAAKQAgACsAIAAoAG0AKgA2ADAAKQAgACsAIABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAKAB5ACoANQAyADUAOQA2ADAAKQAgACsAIAAoAGQAKgAxADQANAAwACkAIAArACAAKABoACoANgAwACkAIAArACAAbQAgACsAIAAoAHMALwA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgACgAeQAqADgANwA2ADYAKQAgACsAIAAoAGQAKgAyADQAKQAgACsAIABoACAAKwAgACgAbQAvADYAMAApACAAKwAgACgAcwAvADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAB5ACAAKwAgACgAZAAvADMANgA1AC4AMgA1ACkAIAArACAAKABoAC8AOAA3ADYANgApACAAKwAgACgAbQAvADUAMgA1ADkANgAwACkAIAArACAAKABzAC8AMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABVAG4AaQB0AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQB4AGUAZAAoAHIAZQBzAHUAbAB0ACwAOQApACYATABPAFcARQBSACgAYwBvAGQAZQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEUAWABQAFQASQBNAEUAVAAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBpAG4AYwBsAHUAZABlAFoAZQByAG8AXQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAIABUAFIAVQBFACwAIABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdQBuAGkAdAAsACAAVQBQAFAARQBSACgAdQBuAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgAsACAAUwBXAEkAVABDAEgAKAB1AG4AaQB0ACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAAzADEANQA1ADcANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgADgANgA0ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAMwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAANgAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAXAAiACwAIAAxACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAdgBhAGwAdQBlACAAKgAgAGYAYQBjAHQAbwByACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMAMQA1ADUANwA2ADAAMAApACAALwAgADgANgA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADgANgA0ADAAMAApACAALwAgADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADYAMAAwACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMALAAgAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADYAMAApACwAXABuAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAHkAIAAmACAAXAAiAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABkACAAJgAgAFwAIgBkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAaAAgACYAIABcACIAaABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAG0AIAAmACAAXAAiAG0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABpAG4AdAAoAHMAKgAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALwAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACAAJgAgAFwAIgBzAFwAIgAsACAAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQAgACgAZgB1AHQAdQByAGUALQBwAHIAbwBvAGYAaQBuAGcAIQApAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAgAFwAIgAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAeQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAGQAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABoACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAbQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAZgBvAHIAbQBhAHQAVABlAHgAdAAsACAAXAAiAEkAbgB2AGEAbABpAGQAIABJAG4AcAB1AHQAXAAiACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEUAWABQAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADEANAA0ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIAByAGEAdwAgAHUAbgBpAHQAcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwByAGEAdwBTACwAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC0AIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAUwAsACAATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAdwBNACwAIABNAE8ARAAoAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEgAbwB1AHIAcwAsACAASQBOAFQAKAB0AG8AdABhAGwATQBpAG4AdQB0AGUAcwAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcASAAsACAATQBPAEQAKAB0AG8AdABhAGwASABvAHUAcgBzACwAIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEQAYQB5AHMALAAgAEkATgBUACgAdABvAHQAYQBsAEgAbwB1AHIAcwAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcARAAsACAATQBPAEQAKAB0AG8AdABhAGwARABhAHkAcwAsACAAMwA2ADUALgAyADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAWQAsACAASQBOAFQAKAB0AG8AdABhAGwARABhAHkAcwAgAC8AIAAzADYANQAuADIANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAASABhAG4AZABsAGUAIABjAGEAcgByAHkAbwB2AGUAcgAgAGYAbwByACAAbQBpAG4AdQB0AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBIACwAIABJAEYAKAByAGEAdwBNACAAPgA9ACAANgAwACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkARgAoAHIAYQB3AE0AIAA+AD0AIAA2ADAALAAgADAALAAgAHIAYQB3AE0AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGgAbwB1AHIAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBEACwAIABJAEYAKAByAGEAdwBIACAAKwAgAGMAYQByAHIAeQBIACAAPgA9ACAAMgA0ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkARgAoAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAIAA+AD0AIAAyADQALAAgADAALAAgAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIABjAGEAcgByAHkAWQAsACAASQBGACgAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAAgAD4APQAgADMANgA1AC4AMgA1ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkARgAoAHIAYQB3AEQAIAArACAAYwBhAHIAcgB5AEQAIAA+AD0AIAAzADYANQAuADIANQAsACAAMAAsACAAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAApACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIAByAGEAdwBZACAAKwAgAGMAYQByAHIAeQBZACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAZAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAaAAsACAAXAAiADAAMABcACIAKQAgACYAIABcACIAOgBcACIAIAAmACAAVABFAFgAVAAoAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAGkAbgB0ACgAcgBhAHcAUwAqADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAvADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXABuACAAIAAgACAAIAAgACAAIAAvAC8AcgBhAHcAUwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEkATQBFAEQASQBGAEYAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAdAAsACAAZQBuAGQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB0AGEAcgB0AFMAZQBjACwAIABIAE8AVQBSACgAcwB0AGEAcgB0ACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAHMAdABhAHIAdAApACAAKgAgADYAMAAgACsAIABTAEUAQwBPAE4ARAAoAHMAdABhAHIAdAApACwAXABuACAAIAAgACAAIAAgACAAIABlAG4AZABTAGUAYwAsACAASABPAFUAUgAoAGUAbgBkACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAGUAbgBkACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAGYAZgBTAGUAYwAsACAATQBPAEQAKABlAG4AZABTAGUAYwAgAC0AIABzAHQAYQByAHQAUwBlAGMALAAgADgANgA0ADAAMAApACwAIAAgAC8ALwAgAEgAYQBuAGQAbABlAHMAIABjAHIAbwBzAHMAaQBuAGcAIABtAGkAZABuAGkAZwBoAHQAXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAEkATgBUACgAZABpAGYAZgBTAGUAYwAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbQAsACAASQBOAFQAKABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBzACwAIABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAaABoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAbQBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAcwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQASQBNAEUARABJAEYARgBEACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgB0ACwAIABlAG4AZAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAUwBlAGMALAAgAEgATwBVAFIAKABzAHQAYQByAHQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAcwB0AGEAcgB0ACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGUAbgBkAFMAZQBjACwAIABIAE8AVQBSACgAZQBuAGQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAZQBuAGQAKQAgACoAIAA2ADAAIAArACAAUwBFAEMATwBOAEQAKABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIABkAGkAZgBmAFMAZQBjACwAIABNAE8ARAAoAGUAbgBkAFMAZQBjACAALQAgAHMAdABhAHIAdABTAGUAYwAsACAAOAA2ADQAMAAwACkALAAgACAALwAvACAASABhAG4AZABsAGUAcwAgAGMAcgBvAHMAcwBpAG4AZwAgAG0AaQBkAG4AaQBnAGgAdABcAG4AIAAgACAAIAAgACAAIAAgAGQAaQBmAGYASABvAHUAcgBzACwAIABkAGkAZgBmAFMAZQBjACAALwAgADMANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAGQAaQBmAGYASABvAHUAcgBzACwAIAA5ACkAIAAgAC8ALwAgAEsAZQBlAHAAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATQAxADIAVABPAE0AMgA0ACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAYQBtAHAAbQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQBNAFwAIgAsACAASQBGACgAaABvAHUAcgA9ADEAMgAsACAAXAAiADAAMABcACIALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFAATQBcACIALAAgAEkARgAoAGgAbwB1AHIAPQAxADIALAAgAFwAIgAxADIAXAAiACwAIABUAEUAWABUACgAaABvAHUAcgArADEAMgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAXAAiACwALABoAHIALABtAGkAbgB1AHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBNADIANABUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQAsACAAUgBJAEcASABUACgAaQBuAGMAbwBtAGkAbgBnACwAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQB0AGUAcgBtAGkAbgBlACAAQQBNAC8AUABNAFwAbgAgACAAIAAgACAAIAAgACAAYQBtAHAAbQAsACAASQBGACgAaABvAHUAcgA8ADEAMgAsACAAXAAiAEEATQBcACIALAAgAFwAIgBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG4AdgBlAHIAdAAgADIANAAtAGgAbwB1AHIAIAB0AG8AIAAxADIALQBoAG8AdQByACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAMQAyAFwAIgAsACAAIAAvAC8AIABNAGkAZABuAGkAZwBoAHQAIABjAGEAcwBlACAAKAAwADAAMAAwACAAkiEgADEAMgA6ADAAMAAgAEEATQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAYwBhAHMAZQAgACgAMQAyADAAMAAgAJIhIAAxADIAOgAwADAAIABQAE0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABvAHUAcgA+ADEAMgAsACAAVABFAFgAVAAoAGgAbwB1AHIALQAxADIALAAgAFwAIgAwADAAXAAiACkALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIAB0AGgAZQAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACwAYQBtAHAAbQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ATQAxADIAVABPAEgAMQAyACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAJgAgAE0AaQBkAG4AaQBnAGgAdAAgAGMAYQBzAGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAXAAiADEAMgBcACIALAAgACAALwAvACAARQBuAHMAdQByAGUAcwAgAE0AaQBkAG4AaQBnAGgAdAAgAGkAcwAgAFwAIgAxADIAXAAiACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFwAIgAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABhAG0AcABtAD0AXAAiAFAATQBcACIALAAgAFQARQBYAFQAKABoAG8AdQByACsAMQAyACwAIABcACIAMAAwAFwAIgApACwAIABUAEUAWABUACgAaABvAHUAcgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAOgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACkAJgBhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBIADEAMgBUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAdABvAFQAZQB4AHQALAAgAFQARQBYAFQAKABpAG4AYwBvAG0AaQBuAGcALAAgAFwAIgBIAEgAOgBNAE0AIABBAE0ALwBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFUAUABQAEUAUgAoAFIASQBHAEgAVAAoAHQAbwBUAGUAeAB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAByACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAHQAbwBUAGUAeAB0ACwAIABcACIAOgBcACIAKQAsACAAXAAiADAAMABcACIAKQAsACAAIAAvAC8AIABFAG4AcwB1AHIAZQBzACAAdAB3AG8ALQBkAGkAZwBpAHQAIABoAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAbQBuACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAFQARQBYAFQAQQBGAFQARQBSACgAdABvAFQAZQB4AHQALAAgAFwAIgA6AFwAIgApACwAIABSAEkARwBIAFQAKAB0AG8AVABlAHgAdAAsADIAKQApACwAIABcACIAMAAwAFwAIgApACwAIAAgAC8ALwAgAEUAbgBzAHUAcgBlAHMAIAB0AHcAbwAtAGQAaQBnAGkAdAAgAG0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAaAByACAAJgAgAG0AbgAgACYAIABhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBNADEAMgBNAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBjAG8AbQBpAG4AZwAsACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABhAG0AcABtACwAIABSAEkARwBIAFQAKABpAG4AYwBvAG0AaQBuAGcALAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgAaABtAG0ALAAgAEwARQBGAFQAKABpAG4AYwBvAG0AaQBuAGcALAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABoAGgAbQBtACwAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlACwAIABSAEkARwBIAFQAKABoAGgAbQBtACwAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaAByACwAIABTAFcASQBUAEMASAAoAGEAbQBwAG0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEEATQBcACIALAAgAEkARgAoAGgAbwB1AHIAPQAxADIALAAgAFwAIgAwADAAXAAiACwAIABUAEUAWABUACgAaABvAHUAcgAsACAAXAAiADAAMABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBQAE0AXAAiACwAIABJAEYAKABoAG8AdQByAD0AMQAyACwAIABcACIAMQAyAFwAIgAsACAAVABFAFgAVAAoAGgAbwB1AHIAKwAxADIALAAgAFwAIgAwADAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAHYAYQBsAHUAZQAoAGgAbwB1AHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBtACwAIAB2AGEAbAB1AGUAKABtAGkAbgB1AHQAZQApAC8ANgAwACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwBIAG8AdQByAHMALAAgAGgAaAArAG0AbQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQASABvAHUAcgBzACwAIABkAGUAYwBIAG8AdQByAHMAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAFwAbgAgACAAIAAgACAAIAAgACAAaABIAG8AdQByAHMALAAgAG0AbwBkACgAbQBvAGQASABvAHUAcgBzACwAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AEgAbwB1AHIAcwAsACAAdABlAHgAdAAoAHQAcgB1AG4AYwAoAGgASABvAHUAcgBzACkALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AE0AaQBuAHMALAAgAHQAZQB4AHQAKAAoAGgASABvAHUAcgBzACAALQAgAHQAcgB1AG4AYwAoAGgASABvAHUAcgBzACkAKQAqADYAMAAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgBpAHgALAAgAGkAZgAoAGEAbgBkACgAZABlAGMASABvAHUAcgBzAD4APQAxADIALABtAG8AZABIAG8AdQByAHMAPAAxADIALABoAHIAPQBcACIAQQBNAFwAIgApACwAXAAiAEEATQBcACIALAAgAFwAIgBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwBzAHUAZgBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AFAAdQB0ACwAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAXAAiACwALABvAHUAdABoAG8AdQByAHMALABvAHUAdABNAGkAbgBzACwAcwB1AGYAZgBpAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABcAG4AXABuAFwAbgBcAG4AXABuACAAIAAgACAAKQAgACAAIABcAG4AKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AVABpAG0AZQBDAGEAbABjAHUAbABhAHQAaQBvAG4AcwAiACwAIgB0AGUAeAB0ACIAOgAiACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEQARQBDAFQASQBNAEUAIgAsACIARABFAEMAVABJAE0ARQBGACIALAAiAEUAWABQAFQASQBNAEUAVAAiACwAIgBFAFgAUABUAEkATQBFAEYAIgAsACIAVABJAE0ARQBEAEkARgBGAFMAIgAsACIAVABJAE0ARQBEAEkARgBGAEQAIgAsACIATQAxADIAVABPAE0AMgA0ACIALAAiAE0AMgA0AFQATwBNADEAMgAiACwAIgBNADEAMgBUAE8ASAAxADIAIgAsACIASAAxADIAVABPAE0AMQAyACIALAAiAE0AMQAyAE0ATwBEACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/time-functions/TimeConversionFunctions.xlsx
+++ b/time-functions/TimeConversionFunctions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S00014510\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34BAC8-E524-41B9-97FB-8A2E3815D661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C95B40-932E-44D2-9C6F-0653C607F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="1095" windowWidth="27600" windowHeight="14250" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -21,12 +21,13 @@
     <definedName name="EXPTIMEF">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.decimalPlaces, _xlfn.LET(_xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 1440, "S", 60, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.rawS, MOD(_xlpm.totalSeconds, 60), _xlpm.totalMinutes, INT(_xlpm.totalSeconds / 60), _xlpm.rawM, MOD(_xlpm.totalMinutes, 60), _xlpm.totalHours, INT(_xlpm.totalMinutes / 60), _xlpm.rawH, MOD(_xlpm.totalHours, 24), _xlpm.totalDays, INT(_xlpm.totalHours / 24), _xlpm.rawD, MOD(_xlpm.totalDays, 365.25), _xlpm.rawY, INT(_xlpm.totalDays / 365.25), _xlpm.carryH, IF(_xlpm.rawM &gt;= 60, 1, 0), _xlpm.m, IF(_xlpm.rawM &gt;= 60, 0, _xlpm.rawM), _xlpm.carryD, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 1, 0), _xlpm.h, IF(_xlpm.rawH + _xlpm.carryH &gt;= 24, 0, _xlpm.rawH + _xlpm.carryH), _xlpm.carryY, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 1, 0), _xlpm.d, IF(_xlpm.rawD + _xlpm.carryD &gt;= 365.25, 0, _xlpm.rawD + _xlpm.carryD), _xlpm.y, _xlpm.rawY + _xlpm.carryY, TEXT(_xlpm.y, "00") &amp; ":" &amp; TEXT(_xlpm.d, "000") &amp; ":" &amp; TEXT(_xlpm.h, "00") &amp; ":" &amp; TEXT(_xlpm.m, "00") &amp; ":" &amp; INT(_xlpm.rawS * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces))</definedName>
     <definedName name="EXPTIMET">_xlfn.LAMBDA(_xlpm.unit,_xlpm.value,_xlop.includeZero,_xlop.decimalPlaces, _xlfn.LET(_xlpm.includeZero, IF(_xlfn.ISOMITTED(_xlpm.includeZero), TRUE, _xlpm.includeZero), _xlpm.decimalPlaces, IF(_xlfn.ISOMITTED(_xlpm.decimalPlaces), 3, _xlpm.decimalPlaces), _xlpm.unit, UPPER(_xlpm.unit), _xlpm.factor, _xlfn.SWITCH(_xlpm.unit, "Y", 31557600, "D", 86400, "H", 3600, "M", 60, "S", 1, NA()), _xlpm.totalSeconds, _xlpm.value * _xlpm.factor, _xlpm.y, INT(_xlpm.totalSeconds / 31557600), _xlpm.d, INT(MOD(_xlpm.totalSeconds, 31557600) / 86400), _xlpm.h, INT(MOD(_xlpm.totalSeconds, 86400) / 3600), _xlpm.m, INT(MOD(_xlpm.totalSeconds, 3600) / 60), _xlpm.s, MOD(_xlpm.totalSeconds, 60), _xlpm.formattedY, _xlpm.y &amp; "y", _xlpm.formattedD, _xlpm.d &amp; "d", _xlpm.formattedH, _xlpm.h &amp; "h", _xlpm.formattedM, _xlpm.m &amp; "m", _xlpm.formattedS, INT(_xlpm.s * 10 ^ _xlpm.decimalPlaces) / 10 ^ _xlpm.decimalPlaces &amp; "s", _xlpm.formatText, _xlfn.TEXTJOIN(" ", TRUE, IF(_xlpm.includeZero + _xlpm.y &gt; 0, _xlpm.formattedY, ""), IF(_xlpm.includeZero + _xlpm.d &gt; 0, _xlpm.formattedD, ""), IF(_xlpm.includeZero + _xlpm.h &gt; 0, _xlpm.formattedH, ""), IF(_xlpm.includeZero + _xlpm.m &gt; 0, _xlpm.formattedM, ""), _xlpm.formattedS), IFERROR(_xlpm.formatText, "Invalid Input")))</definedName>
     <definedName name="H12TOM12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.toText, TEXT(_xlpm.incoming, "HH:MM AM/PM"), _xlpm.ampm, UPPER(RIGHT(_xlpm.toText, 2)), _xlpm.hr, TEXT(_xlfn.TEXTBEFORE(_xlpm.toText, ":"), "00"), _xlpm.mn, TEXT(_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.toText, ":"), RIGHT(_xlpm.toText, 2)), "00"), _xlpm.output, _xlpm.hr &amp; _xlpm.mn &amp; _xlpm.ampm, _xlpm.output))</definedName>
-    <definedName name="M12MOD">_xlfn.LAMBDA(_xlpm.incoming,_xlpm.adjustment, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.ampm, "AM", IF(_xlpm.hour = 12, "00", TEXT(_xlpm.hour, "00")), "PM", IF(_xlpm.hour = 12, "12", TEXT(_xlpm.hour + 12, "00"))), _xlpm.hh, VALUE(_xlpm.hour), _xlpm.mm, VALUE(_xlpm.minute) / 60, _xlpm.decHours, _xlpm.hh + _xlpm.mm, _xlpm.modHours, _xlpm.decHours + _xlpm.adjustment, _xlpm.hHours, MOD(_xlpm.modHours, 12), _xlpm.outHours, TEXT(TRUNC(_xlpm.hHours), "00"), _xlpm.outMins, TEXT((_xlpm.hHours - TRUNC(_xlpm.hHours)) * 60, "00"), _xlpm.suffix, IF(AND(_xlpm.decHours &gt;= 12, _xlpm.modHours &lt; 12, _xlpm.hr = "AM"), "AM", "PM"), _xlpm.outPut, _xlfn.TEXTJOIN("", , _xlpm.outHours, _xlpm.outMins, _xlpm.suffix), _xlpm.outPut))</definedName>
+    <definedName name="M12MOD">_xlfn.LAMBDA(_xlpm.incoming,_xlpm.adjustment, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, VALUE(RIGHT(_xlpm.hhmm, 2)) / 60, _xlpm.excelTime, TIME(_xlpm.hour + IF(AND(_xlpm.ampm = "PM", _xlpm.hour &lt; 12), 12, 0), _xlpm.minute * 60, 0), _xlpm.newTime, MOD(_xlpm.excelTime + _xlpm.adjustment / 24, 1), _xlpm.newHour, HOUR(_xlpm.newTime), _xlpm.newMin, MINUTE(_xlpm.newTime), _xlpm.suffix, IF(_xlpm.newHour &gt;= 12, "PM", "AM"), _xlpm.formattedHour, TEXT(MOD(_xlpm.newHour, 12), "00"), _xlpm.formattedHourFinal, IF(_xlpm.formattedHour = "00", "12", _xlpm.formattedHour), _xlpm.formattedMin, TEXT(_xlpm.newMin, "00"), _xlpm.outPut, _xlpm.formattedHourFinal &amp; _xlpm.formattedMin &amp; _xlpm.suffix, _xlpm.outPut))</definedName>
     <definedName name="M12TOH12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.hour, 12, "12", 0, "12", IF(_xlpm.ampm = "PM", TEXT(_xlpm.hour + 12, "00"), TEXT(_xlpm.hour, "00"))), _xlpm.output, _xlfn.TEXTJOIN(":", , _xlpm.hr, _xlpm.minute) &amp; _xlpm.ampm, _xlpm.output))</definedName>
     <definedName name="M12TOM24">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.ampm, RIGHT(_xlpm.incoming, 2), _xlpm.hhmm, LEFT(_xlpm.incoming, 4), _xlpm.hour, VALUE(LEFT(_xlpm.hhmm, 2)), _xlpm.minute, RIGHT(_xlpm.hhmm, 2), _xlpm.hr, _xlfn.SWITCH(_xlpm.ampm, "AM", IF(_xlpm.hour = 12, "00", TEXT(_xlpm.hour, "00")), "PM", IF(_xlpm.hour = 12, "12", TEXT(_xlpm.hour + 12, "00"))), _xlpm.output, _xlfn.TEXTJOIN("", , _xlpm.hr, _xlpm.minute), _xlpm.output))</definedName>
     <definedName name="M24TOM12">_xlfn.LAMBDA(_xlpm.incoming, _xlfn.LET(_xlpm.hour, VALUE(LEFT(_xlpm.incoming, 2)), _xlpm.minute, RIGHT(_xlpm.incoming, 2), _xlpm.ampm, IF(_xlpm.hour &lt; 12, "AM", "PM"), _xlpm.hr, _xlfn.SWITCH(_xlpm.hour, 0, "12", 12, "12", IF(_xlpm.hour &gt; 12, TEXT(_xlpm.hour - 12, "00"), TEXT(_xlpm.hour, "00"))), _xlpm.output, _xlfn.TEXTJOIN("", , _xlpm.hr, _xlpm.minute, _xlpm.ampm), _xlpm.output))</definedName>
     <definedName name="TIMEDIFFD">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.diffHours, _xlpm.diffSec / 3600, ROUND(_xlpm.diffHours, 9)))</definedName>
     <definedName name="TIMEDIFFS">_xlfn.LAMBDA(_xlpm.start,_xlpm.end, _xlfn.LET(_xlpm.startSec, HOUR(_xlpm.start) * 3600 + MINUTE(_xlpm.start) * 60 + SECOND(_xlpm.start), _xlpm.endSec, HOUR(_xlpm.end) * 3600 + MINUTE(_xlpm.end) * 60 + SECOND(_xlpm.end), _xlpm.diffSec, MOD(_xlpm.endSec - _xlpm.startSec, 86400), _xlpm.hh, INT(_xlpm.diffSec / 3600), _xlpm.mm, INT(MOD(_xlpm.diffSec, 3600) / 60), _xlpm.ss, MOD(_xlpm.diffSec, 60), TEXT(_xlpm.hh, "00") &amp; ":" &amp; TEXT(_xlpm.mm, "00") &amp; ":" &amp; TEXT(_xlpm.ss, "00")))</definedName>
+    <definedName name="TIMEMOD">_xlfn.LAMBDA(_xlpm.startTime,_xlpm.adjustment,_xlop.formatted, _xlfn.LET(_xlpm.newTime, MOD(_xlpm.startTime + (_xlpm.adjustment / 24), 1), IF(_xlfn.ISOMITTED(_xlpm.formatted), _xlpm.newTime, TEXT(_xlpm.newTime, "hh:mm AM/PM"))))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,15 +72,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>0900AM</t>
   </si>
   <si>
-    <t>1230PM</t>
+    <t>0330PM</t>
   </si>
   <si>
-    <t>0330PM</t>
+    <t>1245PM</t>
+  </si>
+  <si>
+    <t>0415AM</t>
   </si>
 </sst>
 </file>
@@ -464,7 +468,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="705" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="552" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -499,7 +503,7 @@
   <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -564,10 +568,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
         <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -582,43 +589,70 @@
         <v>03:32:00</v>
       </c>
       <c r="D16" t="str" cm="1">
-        <f t="array" ref="D16">M12MOD(D13,2)</f>
-        <v>1100PM</v>
+        <f t="array" ref="D16">M12MOD(D13,11)</f>
+        <v>0800PM</v>
       </c>
       <c r="E16" t="str" cm="1">
-        <f t="array" ref="E16">M12MOD(E13,2)</f>
-        <v>0230PM</v>
+        <f t="array" ref="E16">M12MOD(E13,11)</f>
+        <v>1145PM</v>
       </c>
       <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">M12MOD(F13,2)</f>
-        <v>0530PM</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <f t="array" ref="F16">M12MOD(F13,11)</f>
+        <v>0315PM</v>
+      </c>
+      <c r="G16" t="str" cm="1">
+        <f t="array" ref="G16">M12MOD(G13,11)</f>
+        <v>0230AM</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="D17" t="str" cm="1">
-        <f t="array" ref="D17">M12MOD(D13,-2)</f>
-        <v>0700PM</v>
+        <f t="array" ref="D17">M12MOD(D13,-1.25)</f>
+        <v>0745AM</v>
       </c>
       <c r="E17" t="str" cm="1">
-        <f t="array" ref="E17">M12MOD(E13,-2)</f>
-        <v>1030PM</v>
+        <f t="array" ref="E17">M12MOD(E13,-1.25)</f>
+        <v>1130AM</v>
       </c>
       <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">M12MOD(F13,-2)</f>
-        <v>0130PM</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <f t="array" ref="F17">M12MOD(F13,-1.25)</f>
+        <v>0300AM</v>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" ref="G17">M12MOD(G13,-1.25)</f>
+        <v>0215PM</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="21" spans="2:7">
+      <c r="D21" s="7">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="E21" s="7" t="str" cm="1">
+        <f t="array" ref="E21">H12TOM12(TIMEMOD(D21,-5))</f>
+        <v>0655AM</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="D22" s="7" cm="1">
+        <f t="array" ref="D22">TIMEMOD(D21,2)</f>
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="E22" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D22)</f>
+        <v>=TIMEMOD(D21,2)</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="E26" s="7"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:7">
       <c r="B28" s="3"/>
     </row>
   </sheetData>
@@ -627,7 +661,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAeQAgACsAIAAoAGQALwAzADYANQAuADIANQApACAAKwAgACgAaAAvADgANwA2ADYAKQAgACsAIAAoAG0ALwA1ADIANQA5ADYAMAApACAAKwAgACgAcwAvADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAVQBuAGkAdABcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AbQAvADYAMABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBDAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFsAeQBdACwAWwBkAF0ALABbAGgAXQAsAFsAbQBdACwAWwBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAATgAoAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAATgAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAATgAoAGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAATgAoAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAATgAoAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsACAAVQBQAFAARQBSACgASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABpAG4AcAB1AHQALAAgAFwAIgBZAEQASABNAFMAXAAiACkAKQAsACAAaQBuAHAAdQB0ACwAIABcACIAUwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgACgAeQAqADMAMQA1ADUANwA2ADAAMAApACAAKwAgACgAZAAqADgANgA0ADAAMAApACAAKwAgACgAaAAqADMANgAwADAAKQAgACsAIAAoAG0AKgA2ADAAKQAgACsAIABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAKAB5ACoANQAyADUAOQA2ADAAKQAgACsAIAAoAGQAKgAxADQANAAwACkAIAArACAAKABoACoANgAwACkAIAArACAAbQAgACsAIAAoAHMALwA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgACgAeQAqADgANwA2ADYAKQAgACsAIAAoAGQAKgAyADQAKQAgACsAIABoACAAKwAgACgAbQAvADYAMAApACAAKwAgACgAcwAvADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAB5ACAAKwAgACgAZAAvADMANgA1AC4AMgA1ACkAIAArACAAKABoAC8AOAA3ADYANgApACAAKwAgACgAbQAvADUAMgA1ADkANgAwACkAIAArACAAKABzAC8AMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABVAG4AaQB0AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQB4AGUAZAAoAHIAZQBzAHUAbAB0ACwAOQApACYATABPAFcARQBSACgAYwBvAGQAZQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEUAWABQAFQASQBNAEUAVAAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBpAG4AYwBsAHUAZABlAFoAZQByAG8AXQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAIABUAFIAVQBFACwAIABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdQBuAGkAdAAsACAAVQBQAFAARQBSACgAdQBuAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgAsACAAUwBXAEkAVABDAEgAKAB1AG4AaQB0ACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAAzADEANQA1ADcANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgADgANgA0ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAMwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAANgAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAXAAiACwAIAAxACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAdgBhAGwAdQBlACAAKgAgAGYAYQBjAHQAbwByACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMAMQA1ADUANwA2ADAAMAApACAALwAgADgANgA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADgANgA0ADAAMAApACAALwAgADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADYAMAAwACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMALAAgAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADYAMAApACwAXABuAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAHkAIAAmACAAXAAiAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABkACAAJgAgAFwAIgBkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAaAAgACYAIABcACIAaABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAG0AIAAmACAAXAAiAG0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABpAG4AdAAoAHMAKgAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALwAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACAAJgAgAFwAIgBzAFwAIgAsACAAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQAgACgAZgB1AHQAdQByAGUALQBwAHIAbwBvAGYAaQBuAGcAIQApAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAgAFwAIgAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAeQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAGQAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABoACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAbQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAZgBvAHIAbQBhAHQAVABlAHgAdAAsACAAXAAiAEkAbgB2AGEAbABpAGQAIABJAG4AcAB1AHQAXAAiACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEUAWABQAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADEANAA0ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIAByAGEAdwAgAHUAbgBpAHQAcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwByAGEAdwBTACwAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC0AIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAUwAsACAATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAdwBNACwAIABNAE8ARAAoAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEgAbwB1AHIAcwAsACAASQBOAFQAKAB0AG8AdABhAGwATQBpAG4AdQB0AGUAcwAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcASAAsACAATQBPAEQAKAB0AG8AdABhAGwASABvAHUAcgBzACwAIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEQAYQB5AHMALAAgAEkATgBUACgAdABvAHQAYQBsAEgAbwB1AHIAcwAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcARAAsACAATQBPAEQAKAB0AG8AdABhAGwARABhAHkAcwAsACAAMwA2ADUALgAyADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAWQAsACAASQBOAFQAKAB0AG8AdABhAGwARABhAHkAcwAgAC8AIAAzADYANQAuADIANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAASABhAG4AZABsAGUAIABjAGEAcgByAHkAbwB2AGUAcgAgAGYAbwByACAAbQBpAG4AdQB0AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBIACwAIABJAEYAKAByAGEAdwBNACAAPgA9ACAANgAwACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkARgAoAHIAYQB3AE0AIAA+AD0AIAA2ADAALAAgADAALAAgAHIAYQB3AE0AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGgAbwB1AHIAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBEACwAIABJAEYAKAByAGEAdwBIACAAKwAgAGMAYQByAHIAeQBIACAAPgA9ACAAMgA0ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkARgAoAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAIAA+AD0AIAAyADQALAAgADAALAAgAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIABjAGEAcgByAHkAWQAsACAASQBGACgAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAAgAD4APQAgADMANgA1AC4AMgA1ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkARgAoAHIAYQB3AEQAIAArACAAYwBhAHIAcgB5AEQAIAA+AD0AIAAzADYANQAuADIANQAsACAAMAAsACAAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAApACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIAByAGEAdwBZACAAKwAgAGMAYQByAHIAeQBZACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAZAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAaAAsACAAXAAiADAAMABcACIAKQAgACYAIABcACIAOgBcACIAIAAmACAAVABFAFgAVAAoAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAGkAbgB0ACgAcgBhAHcAUwAqADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAvADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXABuACAAIAAgACAAIAAgACAAIAAvAC8AcgBhAHcAUwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEkATQBFAEQASQBGAEYAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAdAAsACAAZQBuAGQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB0AGEAcgB0AFMAZQBjACwAIABIAE8AVQBSACgAcwB0AGEAcgB0ACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAHMAdABhAHIAdAApACAAKgAgADYAMAAgACsAIABTAEUAQwBPAE4ARAAoAHMAdABhAHIAdAApACwAXABuACAAIAAgACAAIAAgACAAIABlAG4AZABTAGUAYwAsACAASABPAFUAUgAoAGUAbgBkACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAGUAbgBkACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAGYAZgBTAGUAYwAsACAATQBPAEQAKABlAG4AZABTAGUAYwAgAC0AIABzAHQAYQByAHQAUwBlAGMALAAgADgANgA0ADAAMAApACwAIAAgAC8ALwAgAEgAYQBuAGQAbABlAHMAIABjAHIAbwBzAHMAaQBuAGcAIABtAGkAZABuAGkAZwBoAHQAXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAEkATgBUACgAZABpAGYAZgBTAGUAYwAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbQAsACAASQBOAFQAKABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBzACwAIABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAaABoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAbQBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAcwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQASQBNAEUARABJAEYARgBEACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgB0ACwAIABlAG4AZAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAUwBlAGMALAAgAEgATwBVAFIAKABzAHQAYQByAHQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAcwB0AGEAcgB0ACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGUAbgBkAFMAZQBjACwAIABIAE8AVQBSACgAZQBuAGQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAZQBuAGQAKQAgACoAIAA2ADAAIAArACAAUwBFAEMATwBOAEQAKABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIABkAGkAZgBmAFMAZQBjACwAIABNAE8ARAAoAGUAbgBkAFMAZQBjACAALQAgAHMAdABhAHIAdABTAGUAYwAsACAAOAA2ADQAMAAwACkALAAgACAALwAvACAASABhAG4AZABsAGUAcwAgAGMAcgBvAHMAcwBpAG4AZwAgAG0AaQBkAG4AaQBnAGgAdABcAG4AIAAgACAAIAAgACAAIAAgAGQAaQBmAGYASABvAHUAcgBzACwAIABkAGkAZgBmAFMAZQBjACAALwAgADMANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAGQAaQBmAGYASABvAHUAcgBzACwAIAA5ACkAIAAgAC8ALwAgAEsAZQBlAHAAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATQAxADIAVABPAE0AMgA0ACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAYQBtAHAAbQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQBNAFwAIgAsACAASQBGACgAaABvAHUAcgA9ADEAMgAsACAAXAAiADAAMABcACIALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFAATQBcACIALAAgAEkARgAoAGgAbwB1AHIAPQAxADIALAAgAFwAIgAxADIAXAAiACwAIABUAEUAWABUACgAaABvAHUAcgArADEAMgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAXAAiACwALABoAHIALABtAGkAbgB1AHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBNADIANABUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQAsACAAUgBJAEcASABUACgAaQBuAGMAbwBtAGkAbgBnACwAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQB0AGUAcgBtAGkAbgBlACAAQQBNAC8AUABNAFwAbgAgACAAIAAgACAAIAAgACAAYQBtAHAAbQAsACAASQBGACgAaABvAHUAcgA8ADEAMgAsACAAXAAiAEEATQBcACIALAAgAFwAIgBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG4AdgBlAHIAdAAgADIANAAtAGgAbwB1AHIAIAB0AG8AIAAxADIALQBoAG8AdQByACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAMQAyAFwAIgAsACAAIAAvAC8AIABNAGkAZABuAGkAZwBoAHQAIABjAGEAcwBlACAAKAAwADAAMAAwACAAkiEgADEAMgA6ADAAMAAgAEEATQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAYwBhAHMAZQAgACgAMQAyADAAMAAgAJIhIAAxADIAOgAwADAAIABQAE0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABvAHUAcgA+ADEAMgAsACAAVABFAFgAVAAoAGgAbwB1AHIALQAxADIALAAgAFwAIgAwADAAXAAiACkALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIAB0AGgAZQAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACwAYQBtAHAAbQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ATQAxADIAVABPAEgAMQAyACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAJgAgAE0AaQBkAG4AaQBnAGgAdAAgAGMAYQBzAGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAXAAiADEAMgBcACIALAAgACAALwAvACAARQBuAHMAdQByAGUAcwAgAE0AaQBkAG4AaQBnAGgAdAAgAGkAcwAgAFwAIgAxADIAXAAiACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFwAIgAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABhAG0AcABtAD0AXAAiAFAATQBcACIALAAgAFQARQBYAFQAKABoAG8AdQByACsAMQAyACwAIABcACIAMAAwAFwAIgApACwAIABUAEUAWABUACgAaABvAHUAcgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAOgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACkAJgBhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBIADEAMgBUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAdABvAFQAZQB4AHQALAAgAFQARQBYAFQAKABpAG4AYwBvAG0AaQBuAGcALAAgAFwAIgBIAEgAOgBNAE0AIABBAE0ALwBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFUAUABQAEUAUgAoAFIASQBHAEgAVAAoAHQAbwBUAGUAeAB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAByACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAHQAbwBUAGUAeAB0ACwAIABcACIAOgBcACIAKQAsACAAXAAiADAAMABcACIAKQAsACAAIAAvAC8AIABFAG4AcwB1AHIAZQBzACAAdAB3AG8ALQBkAGkAZwBpAHQAIABoAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAbQBuACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAFQARQBYAFQAQQBGAFQARQBSACgAdABvAFQAZQB4AHQALAAgAFwAIgA6AFwAIgApACwAIABSAEkARwBIAFQAKAB0AG8AVABlAHgAdAAsADIAKQApACwAIABcACIAMAAwAFwAIgApACwAIAAgAC8ALwAgAEUAbgBzAHUAcgBlAHMAIAB0AHcAbwAtAGQAaQBnAGkAdAAgAG0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAaAByACAAJgAgAG0AbgAgACYAIABhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBNADEAMgBNAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBjAG8AbQBpAG4AZwAsACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABhAG0AcABtACwAIABSAEkARwBIAFQAKABpAG4AYwBvAG0AaQBuAGcALAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgAaABtAG0ALAAgAEwARQBGAFQAKABpAG4AYwBvAG0AaQBuAGcALAA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgAbwB1AHIALAAgAFYAQQBMAFUARQAoAEwARQBGAFQAKABoAGgAbQBtACwAMgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AaQBuAHUAdABlACwAIABSAEkARwBIAFQAKABoAGgAbQBtACwAMgApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAaAByACwAIABTAFcASQBUAEMASAAoAGEAbQBwAG0ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEEATQBcACIALAAgAEkARgAoAGgAbwB1AHIAPQAxADIALAAgAFwAIgAwADAAXAAiACwAIABUAEUAWABUACgAaABvAHUAcgAsACAAXAAiADAAMABcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBQAE0AXAAiACwAIABJAEYAKABoAG8AdQByAD0AMQAyACwAIABcACIAMQAyAFwAIgAsACAAVABFAFgAVAAoAGgAbwB1AHIAKwAxADIALAAgAFwAIgAwADAAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAHYAYQBsAHUAZQAoAGgAbwB1AHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBtACwAIAB2AGEAbAB1AGUAKABtAGkAbgB1AHQAZQApAC8ANgAwACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAYwBIAG8AdQByAHMALAAgAGgAaAArAG0AbQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQASABvAHUAcgBzACwAIABkAGUAYwBIAG8AdQByAHMAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAFwAbgAgACAAIAAgACAAIAAgACAAaABIAG8AdQByAHMALAAgAG0AbwBkACgAbQBvAGQASABvAHUAcgBzACwAMQAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AEgAbwB1AHIAcwAsACAAdABlAHgAdAAoAHQAcgB1AG4AYwAoAGgASABvAHUAcgBzACkALAAgAFwAIgAwADAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AE0AaQBuAHMALAAgAHQAZQB4AHQAKAAoAGgASABvAHUAcgBzACAALQAgAHQAcgB1AG4AYwAoAGgASABvAHUAcgBzACkAKQAqADYAMAAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgBpAHgALAAgAGkAZgAoAGEAbgBkACgAZABlAGMASABvAHUAcgBzAD4APQAxADIALABtAG8AZABIAG8AdQByAHMAPAAxADIALABoAHIAPQBcACIAQQBNAFwAIgApACwAXAAiAEEATQBcACIALAAgAFwAIgBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwBzAHUAZgBmAGkAeABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AFAAdQB0ACwAIAB0AGUAeAB0AGoAbwBpAG4AKABcACIAXAAiACwALABvAHUAdABoAG8AdQByAHMALABvAHUAdABNAGkAbgBzACwAcwB1AGYAZgBpAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAIAAgACAAIABcAG4AXABuAFwAbgBcAG4AXABuACAAIAAgACAAKQAgACAAIABcAG4AKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AVABpAG0AZQBDAGEAbABjAHUAbABhAHQAaQBvAG4AcwAiACwAIgB0AGUAeAB0ACIAOgAiACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEQARQBDAFQASQBNAEUAIgAsACIARABFAEMAVABJAE0ARQBGACIALAAiAEUAWABQAFQASQBNAEUAVAAiACwAIgBFAFgAUABUAEkATQBFAEYAIgAsACIAVABJAE0ARQBEAEkARgBGAFMAIgAsACIAVABJAE0ARQBEAEkARgBGAEQAIgAsACIATQAxADIAVABPAE0AMgA0ACIALAAiAE0AMgA0AFQATwBNADEAMgAiACwAIgBNADEAMgBUAE8ASAAxADIAIgAsACIASAAxADIAVABPAE0AMQAyACIALAAiAE0AMQAyAE0ATwBEACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgBEAEUAQwBUAEkATQBFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAWwB5AF0ALABbAGQAXQAsAFsAaABdACwAWwBtAF0ALABbAHMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABOACgAeQApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABOACgAZAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABOACgAaAApACwAXABuACAAIAAgACAAIAAgACAAIABtACwAIABOACgAbQApACwAXABuACAAIAAgACAAIAAgACAAIABzACwAIABOACgAcwApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAIABVAFAAUABFAFIAKABJAEYAKABJAFMATgBVAE0AQgBFAFIAKABTAEUAQQBSAEMASAAoAGkAbgBwAHUAdAAsACAAXAAiAFkARABIAE0AUwBcACIAKQApACwAIABpAG4AcAB1AHQALAAgAFwAIgBTAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABjAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBTAFwAIgAsACAAKAB5ACoAMwAxADUANQA3ADYAMAAwACkAIAArACAAKABkACoAOAA2ADQAMAAwACkAIAArACAAKABoACoAMwA2ADAAMAApACAAKwAgACgAbQAqADYAMAApACAAKwAgAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAE0AXAAiACwAIAAoAHkAKgA1ADIANQA5ADYAMAApACAAKwAgACgAZAAqADEANAA0ADAAKQAgACsAIAAoAGgAKgA2ADAAKQAgACsAIABtACAAKwAgACgAcwAvADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAKAB5ACoAOAA3ADYANgApACAAKwAgACgAZAAqADIANAApACAAKwAgAGgAIAArACAAKABtAC8ANgAwACkAIAArACAAKABzAC8AMwA2ADAAMAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAeQAgACsAIAAoAGQALwAzADYANQAuADIANQApACAAKwAgACgAaAAvADgANwA2ADYAKQAgACsAIAAoAG0ALwA1ADIANQA5ADYAMAApACAAKwAgACgAcwAvADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAVQBuAGkAdABcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAvAC8AbQAvADYAMABcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEQARQBDAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFsAeQBdACwAWwBkAF0ALABbAGgAXQAsAFsAbQBdACwAWwBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAeQAsACAATgAoAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZAAsACAATgAoAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAAsACAATgAoAGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAATgAoAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwAsACAATgAoAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsACAAVQBQAFAARQBSACgASQBGACgASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABpAG4AcAB1AHQALAAgAFwAIgBZAEQASABNAFMAXAAiACkAKQAsACAAaQBuAHAAdQB0ACwAIABcACIAUwBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAYwBvAGQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgACgAeQAqADMAMQA1ADUANwA2ADAAMAApACAAKwAgACgAZAAqADgANgA0ADAAMAApACAAKwAgACgAaAAqADMANgAwADAAKQAgACsAIAAoAG0AKgA2ADAAKQAgACsAIABzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAAKAB5ACoANQAyADUAOQA2ADAAKQAgACsAIAAoAGQAKgAxADQANAAwACkAIAArACAAKABoACoANgAwACkAIAArACAAbQAgACsAIAAoAHMALwA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgACgAeQAqADgANwA2ADYAKQAgACsAIAAoAGQAKgAyADQAKQAgACsAIABoACAAKwAgACgAbQAvADYAMAApACAAKwAgACgAcwAvADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgACgAeQAqADMANgA1ACkAIAArACAAZAAgACsAIAAoAGgALwAyADQAKQAgACsAIAAoAG0ALwAxADQANAAwACkAIAArACAAKABzAC8AOAA2ADQAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAB5ACAAKwAgACgAZAAvADMANgA1AC4AMgA1ACkAIAArACAAKABoAC8AOAA3ADYANgApACAAKwAgACgAbQAvADUAMgA1ADkANgAwACkAIAArACAAKABzAC8AMwAxADUANQA3ADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEkAbgB2AGEAbABpAGQAIABVAG4AaQB0AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAGYAaQB4AGUAZAAoAHIAZQBzAHUAbAB0ACwAOQApACYATABPAFcARQBSACgAYwBvAGQAZQApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEUAWABQAFQASQBNAEUAVAAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBpAG4AYwBsAHUAZABlAFoAZQByAG8AXQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwApACwAIABUAFIAVQBFACwAIABpAG4AYwBsAHUAZABlAFoAZQByAG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdQBuAGkAdAAsACAAVQBQAFAARQBSACgAdQBuAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIABmAGEAYwB0AG8AcgAsACAAUwBXAEkAVABDAEgAKAB1AG4AaQB0ACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFkAXAAiACwAIAAzADEANQA1ADcANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIARABcACIALAAgADgANgA0ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBIAFwAIgAsACAAMwA2ADAAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBNAFwAIgAsACAANgAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFMAXAAiACwAIAAxACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAATgBBACgAKQApACwAXABuACAAIAAgACAAIAAgACAAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAAdgBhAGwAdQBlACAAKgAgAGYAYQBjAHQAbwByACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADMAMQA1ADUANwA2ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABkACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADMAMQA1ADUANwA2ADAAMAApACAALwAgADgANgA0ADAAMAApACwAXABuACAAIAAgACAAIAAgACAAIABoACwAIABJAE4AVAAoAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADgANgA0ADAAMAApACAALwAgADMANgAwADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQAsACAASQBOAFQAKABNAE8ARAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACwAIAAzADYAMAAwACkAIAAvACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHMALAAgAE0ATwBEACgAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgADYAMAApACwAXABuAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAFkALAAgAHkAIAAmACAAXAAiAHkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABEACwAIABkACAAJgAgAFwAIgBkAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASAAsACAAaAAgACYAIABcACIAaABcACIALABcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0ALAAgAG0AIAAmACAAXAAiAG0AXAAiACwAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABTACwAIABpAG4AdAAoAHMAKgAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALwAxADAAXgBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACAAJgAgAFwAIgBzAFwAIgAsACAAIAAvAC8AIABQAGEAcwBzACAAcgBvAHUAbgBkAGUAZAAgAHYAYQBsAHUAZQAgAGQAaQByAGUAYwB0AGwAeQAgACgAZgB1AHQAdQByAGUALQBwAHIAbwBvAGYAaQBuAGcAIQApAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AFQAZQB4AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgAgAFwAIgAsACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAeQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABZACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBuAGMAbAB1AGQAZQBaAGUAcgBvACAAKwAgAGQAIAA+ACAAMAAsACAAZgBvAHIAbQBhAHQAdABlAGQARAAsACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAbgBjAGwAdQBkAGUAWgBlAHIAbwAgACsAIABoACAAPgAgADAALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAG4AYwBsAHUAZABlAFoAZQByAG8AIAArACAAbQAgAD4AIAAwACwAIABmAG8AcgBtAGEAdAB0AGUAZABNACwAIABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQAUwBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAZgBvAHIAbQBhAHQAVABlAHgAdAAsACAAXAAiAEkAbgB2AGEAbABpAGQAIABJAG4AcAB1AHQAXAAiACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAEUAWABQAFQASQBNAEUARgAgAD0AIABMAEEATQBCAEQAQQAoAHUAbgBpAHQALAAgAHYAYQBsAHUAZQAsACAAWwBkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAZgBhAGMAdABvAHIALAAgAFMAVwBJAFQAQwBIACgAdQBuAGkAdAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBZAFwAIgAsACAAMwAxADUANQA3ADYAMAAwACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAEQAXAAiACwAIAA4ADYANAAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIASABcACIALAAgADMANgAwADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIATQBcACIALAAgADEANAA0ADAALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAUwBcACIALAAgADYAMAAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE4AQQAoACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAFMAZQBjAG8AbgBkAHMALAAgAHYAYQBsAHUAZQAgACoAIABmAGEAYwB0AG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAZABlAGMAaQBtAGEAbABQAGwAYQBjAGUAcwAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAYwBpAG0AYQBsAFAAbABhAGMAZQBzACkALAAgADMALAAgAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIAByAGEAdwAgAHUAbgBpAHQAcwBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwByAGEAdwBTACwAIAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAgAC0AIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACAAKgAgADYAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAUwAsACAATQBPAEQAKAB0AG8AdABhAGwAUwBlAGMAbwBuAGQAcwAsACAANgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIABJAE4AVAAoAHQAbwB0AGEAbABTAGUAYwBvAG4AZABzACAALwAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGEAdwBNACwAIABNAE8ARAAoAHQAbwB0AGEAbABNAGkAbgB1AHQAZQBzACwAIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEgAbwB1AHIAcwAsACAASQBOAFQAKAB0AG8AdABhAGwATQBpAG4AdQB0AGUAcwAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcASAAsACAATQBPAEQAKAB0AG8AdABhAGwASABvAHUAcgBzACwAIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAdABvAHQAYQBsAEQAYQB5AHMALAAgAEkATgBUACgAdABvAHQAYQBsAEgAbwB1AHIAcwAgAC8AIAAyADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcARAAsACAATQBPAEQAKAB0AG8AdABhAGwARABhAHkAcwAsACAAMwA2ADUALgAyADUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBhAHcAWQAsACAASQBOAFQAKAB0AG8AdABhAGwARABhAHkAcwAgAC8AIAAzADYANQAuADIANQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAASABhAG4AZABsAGUAIABjAGEAcgByAHkAbwB2AGUAcgAgAGYAbwByACAAbQBpAG4AdQB0AGUAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBIACwAIABJAEYAKAByAGEAdwBNACAAPgA9ACAANgAwACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0ALAAgAEkARgAoAHIAYQB3AE0AIAA+AD0AIAA2ADAALAAgADAALAAgAHIAYQB3AE0AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGgAbwB1AHIAcwBcAG4AIAAgACAAIAAgACAAIAAgAGMAYQByAHIAeQBEACwAIABJAEYAKAByAGEAdwBIACAAKwAgAGMAYQByAHIAeQBIACAAPgA9ACAAMgA0ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgALAAgAEkARgAoAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAIAA+AD0AIAAyADQALAAgADAALAAgAHIAYQB3AEgAIAArACAAYwBhAHIAcgB5AEgAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEgAYQBuAGQAbABlACAAYwBhAHIAcgB5AG8AdgBlAHIAIABmAG8AcgAgAGQAYQB5AHMAXABuACAAIAAgACAAIAAgACAAIABjAGEAcgByAHkAWQAsACAASQBGACgAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAAgAD4APQAgADMANgA1AC4AMgA1ACwAIAAxACwAIAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAGQALAAgAEkARgAoAHIAYQB3AEQAIAArACAAYwBhAHIAcgB5AEQAIAA+AD0AIAAzADYANQAuADIANQAsACAAMAAsACAAcgBhAHcARAAgACsAIABjAGEAcgByAHkARAApACwAXABuACAAIAAgACAAIAAgACAAIAB5ACwAIAByAGEAdwBZACAAKwAgAGMAYQByAHIAeQBZACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAFQARQBYAFQAKAB5ACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAZAAsACAAXAAiADAAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAaAAsACAAXAAiADAAMABcACIAKQAgACYAIABcACIAOgBcACIAIAAmACAAVABFAFgAVAAoAG0ALAAgAFwAIgAwADAAXAAiACkAIAAmACAAXAAiADoAXAAiACAAJgAgAGkAbgB0ACgAcgBhAHcAUwAqADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAKQAvADEAMABeAGQAZQBjAGkAbQBhAGwAUABsAGEAYwBlAHMAXABuACAAIAAgACAAIAAgACAAIAAvAC8AcgBhAHcAUwBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEkATQBFAEQASQBGAEYAUwAgAD0AIABMAEEATQBCAEQAQQAoAHMAdABhAHIAdAAsACAAZQBuAGQALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcwB0AGEAcgB0AFMAZQBjACwAIABIAE8AVQBSACgAcwB0AGEAcgB0ACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAHMAdABhAHIAdAApACAAKgAgADYAMAAgACsAIABTAEUAQwBPAE4ARAAoAHMAdABhAHIAdAApACwAXABuACAAIAAgACAAIAAgACAAIABlAG4AZABTAGUAYwAsACAASABPAFUAUgAoAGUAbgBkACkAIAAqACAAMwA2ADAAMAAgACsAIABNAEkATgBVAFQARQAoAGUAbgBkACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAZQBuAGQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAGYAZgBTAGUAYwAsACAATQBPAEQAKABlAG4AZABTAGUAYwAgAC0AIABzAHQAYQByAHQAUwBlAGMALAAgADgANgA0ADAAMAApACwAIAAgAC8ALwAgAEgAYQBuAGQAbABlAHMAIABjAHIAbwBzAHMAaQBuAGcAIABtAGkAZABuAGkAZwBoAHQAXABuACAAIAAgACAAIAAgACAAIABoAGgALAAgAEkATgBUACgAZABpAGYAZgBTAGUAYwAgAC8AIAAzADYAMAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AbQAsACAASQBOAFQAKABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADMANgAwADAAKQAgAC8AIAA2ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcwBzACwAIABNAE8ARAAoAGQAaQBmAGYAUwBlAGMALAAgADYAMAApACwAXABuACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAaABoACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAbQBtACwAIABcACIAMAAwAFwAIgApACAAJgAgAFwAIgA6AFwAIgAgACYAIABUAEUAWABUACgAcwBzACwAIABcACIAMAAwAFwAIgApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFQASQBNAEUARABJAEYARgBEACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgB0ACwAIABlAG4AZAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABzAHQAYQByAHQAUwBlAGMALAAgAEgATwBVAFIAKABzAHQAYQByAHQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAcwB0AGEAcgB0ACkAIAAqACAANgAwACAAKwAgAFMARQBDAE8ATgBEACgAcwB0AGEAcgB0ACkALABcAG4AIAAgACAAIAAgACAAIAAgAGUAbgBkAFMAZQBjACwAIABIAE8AVQBSACgAZQBuAGQAKQAgACoAIAAzADYAMAAwACAAKwAgAE0ASQBOAFUAVABFACgAZQBuAGQAKQAgACoAIAA2ADAAIAArACAAUwBFAEMATwBOAEQAKABlAG4AZAApACwAXABuACAAIAAgACAAIAAgACAAIABkAGkAZgBmAFMAZQBjACwAIABNAE8ARAAoAGUAbgBkAFMAZQBjACAALQAgAHMAdABhAHIAdABTAGUAYwAsACAAOAA2ADQAMAAwACkALAAgACAALwAvACAASABhAG4AZABsAGUAcwAgAGMAcgBvAHMAcwBpAG4AZwAgAG0AaQBkAG4AaQBnAGgAdABcAG4AIAAgACAAIAAgACAAIAAgAGQAaQBmAGYASABvAHUAcgBzACwAIABkAGkAZgBmAFMAZQBjACAALwAgADMANgAwADAALABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAGQAaQBmAGYASABvAHUAcgBzACwAIAA5ACkAIAAgAC8ALwAgAEsAZQBlAHAAcwAgAGgAaQBnAGgAIABwAHIAZQBjAGkAcwBpAG8AbgAgAGYAbwByACAAYwBhAGwAYwB1AGwAYQB0AGkAbwBuAHMAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ATQAxADIAVABPAE0AMgA0ACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAYQBtAHAAbQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAQQBNAFwAIgAsACAASQBGACgAaABvAHUAcgA9ADEAMgAsACAAXAAiADAAMABcACIALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAXAAiAFAATQBcACIALAAgAEkARgAoAGgAbwB1AHIAPQAxADIALAAgAFwAIgAxADIAXAAiACwAIABUAEUAWABUACgAaABvAHUAcgArADEAMgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAXAAiACwALABoAHIALABtAGkAbgB1AHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBNADIANABUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQAsACAAUgBJAEcASABUACgAaQBuAGMAbwBtAGkAbgBnACwAMgApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQB0AGUAcgBtAGkAbgBlACAAQQBNAC8AUABNAFwAbgAgACAAIAAgACAAIAAgACAAYQBtAHAAbQAsACAASQBGACgAaABvAHUAcgA8ADEAMgAsACAAXAAiAEEATQBcACIALAAgAFwAIgBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG4AdgBlAHIAdAAgADIANAAtAGgAbwB1AHIAIAB0AG8AIAAxADIALQBoAG8AdQByACAAZgBvAHIAbQBhAHQAXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAMQAyAFwAIgAsACAAIAAvAC8AIABNAGkAZABuAGkAZwBoAHQAIABjAGEAcwBlACAAKAAwADAAMAAwACAAkiEgADEAMgA6ADAAMAAgAEEATQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAYwBhAHMAZQAgACgAMQAyADAAMAAgAJIhIAAxADIAOgAwADAAIABQAE0AKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABvAHUAcgA+ADEAMgAsACAAVABFAFgAVAAoAGgAbwB1AHIALQAxADIALAAgAFwAIgAwADAAXAAiACkALAAgAFQARQBYAFQAKABoAG8AdQByACwAIABcACIAMAAwAFwAIgApACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIAB0AGgAZQAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACwAYQBtAHAAbQApACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4ATQAxADIAVABPAEgAMQAyACAAPQAgAEwAQQBNAEIARABBACgAaQBuAGMAbwBtAGkAbgBnACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFIASQBHAEgAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABoAG0AbQAsACAATABFAEYAVAAoAGkAbgBjAG8AbQBpAG4AZwAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBpAG4AdQB0AGUALAAgAFIASQBHAEgAVAAoAGgAaABtAG0ALAAyACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIABoAHIALAAgAFMAVwBJAFQAQwBIACgAaABvAHUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxADIALAAgAFwAIgAxADIAXAAiACwAIAAvAC8AIABOAG8AbwBuACAAJgAgAE0AaQBkAG4AaQBnAGgAdAAgAGMAYQBzAGUAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAMAAsACAAXAAiADEAMgBcACIALAAgACAALwAvACAARQBuAHMAdQByAGUAcwAgAE0AaQBkAG4AaQBnAGgAdAAgAGkAcwAgAFwAIgAxADIAXAAiACAAaQBuAHMAdABlAGEAZAAgAG8AZgAgAFwAIgAwADAAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABhAG0AcABtAD0AXAAiAFAATQBcACIALAAgAFQARQBYAFQAKABoAG8AdQByACsAMQAyACwAIABcACIAMAAwAFwAIgApACwAIABUAEUAWABUACgAaABvAHUAcgAsACAAXAAiADAAMABcACIAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABUAEUAWABUAEoATwBJAE4AKABcACIAOgBcACIALAAsAGgAcgAsAG0AaQBuAHUAdABlACkAJgBhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApACAAIAAgAFwAbgApADsAXABuAFwAbgBIADEAMgBUAE8ATQAxADIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AYwBvAG0AaQBuAGcALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAdABvAFQAZQB4AHQALAAgAFQARQBYAFQAKABpAG4AYwBvAG0AaQBuAGcALAAgAFwAIgBIAEgAOgBNAE0AIABBAE0ALwBQAE0AXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAbQBwAG0ALAAgAFUAUABQAEUAUgAoAFIASQBHAEgAVAAoAHQAbwBUAGUAeAB0ACwAIAAyACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaAByACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAHQAbwBUAGUAeAB0ACwAIABcACIAOgBcACIAKQAsACAAXAAiADAAMABcACIAKQAsACAAIAAvAC8AIABFAG4AcwB1AHIAZQBzACAAdAB3AG8ALQBkAGkAZwBpAHQAIABoAG8AdQByAFwAbgAgACAAIAAgACAAIAAgACAAbQBuACwAIABUAEUAWABUACgAVABFAFgAVABCAEUARgBPAFIARQAoAFQARQBYAFQAQQBGAFQARQBSACgAdABvAFQAZQB4AHQALAAgAFwAIgA6AFwAIgApACwAIABSAEkARwBIAFQAKAB0AG8AVABlAHgAdAAsADIAKQApACwAIABcACIAMAAwAFwAIgApACwAIAAgAC8ALwAgAEUAbgBzAHUAcgBlAHMAIAB0AHcAbwAtAGQAaQBnAGkAdAAgAG0AaQBuAHUAdABlAHMAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAAaAByACAAJgAgAG0AbgAgACYAIABhAG0AcABtACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBNADEAMgBNAE8ARAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBjAG8AbQBpAG4AZwAsACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABFAHgAdAByAGEAYwB0ACAAQQBNAC8AUABNACAAYQBuAGQAIABIAEgATQBNAFwAbgAgACAAIAAgACAAIAAgACAAYQBtAHAAbQAsACAAUgBJAEcASABUACgAaQBuAGMAbwBtAGkAbgBnACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGgAaABtAG0ALAAgAEwARQBGAFQAKABpAG4AYwBvAG0AaQBuAGcALAAgADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaABvAHUAcgAsACAAVgBBAEwAVQBFACgATABFAEYAVAAoAGgAaABtAG0ALAAgADIAKQApACwAXABuACAAIAAgACAAIAAgACAAIABtAGkAbgB1AHQAZQAsACAAVgBBAEwAVQBFACgAUgBJAEcASABUACgAaABoAG0AbQAsACAAMgApACkAIAAvACAANgAwACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG4AdgBlAHIAdAAgAHQAbwAgAEUAeABjAGUAbAAgAHMAZQByAGkAYQBsACAAdABpAG0AZQBcAG4AIAAgACAAIAAgACAAIAAgAGUAeABjAGUAbABUAGkAbQBlACwAIABUAEkATQBFACgAaABvAHUAcgAgACsAIABJAEYAKABBAE4ARAAoAGEAbQBwAG0APQBcACIAUABNAFwAIgAsACAAaABvAHUAcgAgADwAIAAxADIAKQAsACAAMQAyACwAIAAwACkALAAgAG0AaQBuAHUAdABlACAAKgAgADYAMAAsACAAMAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQQBwAHAAbAB5ACAAYQBkAGoAdQBzAHQAbQBlAG4AdAAgAGEAbgBkACAAdwByAGEAcAAgAGEAcgBvAHUAbgBkACAAMgA0ACAAaABvAHUAcgBzAFwAbgAgACAAIAAgACAAIAAgACAAbgBlAHcAVABpAG0AZQAsACAATQBPAEQAKABlAHgAYwBlAGwAVABpAG0AZQAgACsAIABhAGQAagB1AHMAdABtAGUAbgB0ACAALwAgADIANAAsACAAMQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARQB4AHQAcgBhAGMAdAAgAHUAcABkAGEAdABlAGQAIABoAG8AdQByACAAYQBuAGQAIABtAGkAbgB1AHQAZQBcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB3AEgAbwB1AHIALAAgAEgATwBVAFIAKABuAGUAdwBUAGkAbQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgAG4AZQB3AE0AaQBuACwAIABNAEkATgBVAFQARQAoAG4AZQB3AFQAaQBtAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQB0AGUAcgBtAGkAbgBlACAAQQBNAC8AUABNACAAcwB1AGYAZgBpAHgAXABuACAAIAAgACAAIAAgACAAIABzAHUAZgBmAGkAeAAsACAASQBGACgAbgBlAHcASABvAHUAcgAgAD4APQAgADEAMgAsACAAXAAiAFAATQBcACIALAAgAFwAIgBBAE0AXAAiACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbgB2AGUAcgB0ACAAYgBhAGMAawAgAHQAbwAgADEAMgAtAGgAbwB1AHIAIABmAG8AcgBtAGEAdAAgACgAZQBuAHMAdQByAGkAbgBnACAAMQAyADoAMAAwACAAQQBNAC8AUABNACAAaQBzACAAaABhAG4AZABsAGUAZAAgAGMAbwByAHIAZQBjAHQAbAB5ACkAXABuACAAIAAgACAAIAAgACAAIABmAG8AcgBtAGEAdAB0AGUAZABIAG8AdQByACwAIABUAEUAWABUACgATQBPAEQAKABuAGUAdwBIAG8AdQByACwAIAAxADIAKQAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBvAHIAbQBhAHQAdABlAGQASABvAHUAcgBGAGkAbgBhAGwALAAgAEkARgAoAGYAbwByAG0AYQB0AHQAZQBkAEgAbwB1AHIAPQBcACIAMAAwAFwAIgAsACAAXAAiADEAMgBcACIALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgAbwB1AHIAKQAsACAAIAAvAC8AIABNAGkAZABuAGkAZwBoAHQAIAA9ACAAMQAyADoAMAAwACAAQQBNACwAIABOAG8AbwBuACAAPQAgADEAMgA6ADAAMAAgAFAATQBcAG4AIAAgACAAIAAgACAAIAAgAGYAbwByAG0AYQB0AHQAZQBkAE0AaQBuACwAIABUAEUAWABUACgAbgBlAHcATQBpAG4ALAAgAFwAIgAwADAAXAAiACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABGAGkAbgBhAGwAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAUAB1AHQALAAgAGYAbwByAG0AYQB0AHQAZQBkAEgAbwB1AHIARgBpAG4AYQBsACAAJgAgAGYAbwByAG0AYQB0AHQAZQBkAE0AaQBuACAAJgAgAHMAdQBmAGYAaQB4ACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABQAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBUAEkATQBFAE0ATwBEACAAPQAgAEwAQQBNAEIARABBACgAcwB0AGEAcgB0AFQAaQBtAGUALAAgAGEAZABqAHUAcwB0AG0AZQBuAHQALAAgAFsAZgBvAHIAbQBhAHQAdABlAGQAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABuAGUAdwBUAGkAbQBlACwAIABNAE8ARAAoAHMAdABhAHIAdABUAGkAbQBlACAAKwAgACgAYQBkAGoAdQBzAHQAbQBlAG4AdAAgAC8AIAAyADQAKQAsACAAMQApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBTAE8ATQBJAFQAVABFAEQAKABmAG8AcgBtAGEAdAB0AGUAZAApACwAIABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHcAVABpAG0AZQAsACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ADoAIABSAGUAdAB1AHIAbgAgAHAAdQByAGUAIABFAHgAYwBlAGwAIAB0AGkAbQBlAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUACgAbgBlAHcAVABpAG0AZQAsACAAXAAiAGgAaAA6AG0AbQAgAEEATQAvAFAATQBcACIAKQAgACAALwAvACAASQBmACAAZgBvAHIAbQBhAHQAdABlAGQAPQBUAFIAVQBFACwAIAByAGUAdAB1AHIAbgAgAGEAcwAgAHQAZQB4AHQAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAFwAbgBcAG4AXABuACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEQARQBDAFQASQBNAEUAIgAsACIARABFAEMAVABJAE0ARQBGACIALAAiAEUAWABQAFQASQBNAEUAVAAiACwAIgBFAFgAUABUAEkATQBFAEYAIgAsACIAVABJAE0ARQBEAEkARgBGAFMAIgAsACIAVABJAE0ARQBEAEkARgBGAEQAIgAsACIATQAxADIAVABPAE0AMgA0ACIALAAiAE0AMgA0AFQATwBNADEAMgAiACwAIgBNADEAMgBUAE8ASAAxADIAIgAsACIASAAxADIAVABPAE0AMQAyACIALAAiAE0AMQAyAE0ATwBEACIALAAiAFQASQBNAEUATQBPAEQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
